--- a/Data/仕上げDB.xlsx
+++ b/Data/仕上げDB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,32 +483,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>外壁</t>
+          <t>浴室</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>外壁</t>
+          <t>床</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大工</t>
+          <t>フォンテトレーティング</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>板張り</t>
+          <t>60角タイル</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>SG500R</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ー</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -520,12 +520,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>佐藤茂邸</t>
+          <t>水の森中島邸</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>浴室</t>
+          <t>洗面所、脱衣洗濯室</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,69 +535,69 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>フォンテトレーティング</t>
+          <t>ADVAN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>60角タイル</t>
+          <t>BORON BKBサイザル（500角）</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SG500R</t>
+          <t>SB-1027.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ー</t>
+          <t>プレーンベージュ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ー</t>
+          <t>500×500×2.9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>水の森中島邸</t>
+          <t>中山藤井邸</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>洗面所、脱衣洗濯室</t>
+          <t>内壁</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>床</t>
+          <t>内壁</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ADVAN</t>
+          <t>リリカラ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BORON BKBサイザル（500角）</t>
+          <t>壁紙　ビニルクロス</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SB-1027.91</t>
+          <t>LL-7658</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>プレーンベージュ</t>
+          <t>ー</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>500×500×2.9</t>
+          <t>カタログ：LIGHTライト 2022-2025</t>
         </is>
       </c>
     </row>
@@ -609,27 +609,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>内壁</t>
+          <t>家具</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>内壁</t>
+          <t>面材</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>リリカラ</t>
+          <t>アイカ工業</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>壁紙　ビニルクロス</t>
+          <t>メラミン化粧板</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>LL-7658</t>
+          <t>K-6301</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>カタログ：LIGHTライト 2022-2025</t>
+          <t>ー</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>家具</t>
+          <t>外壁</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>面材</t>
+          <t>外壁</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>メラミン化粧板</t>
+          <t>ジョリパッドネオ∞ JQ-620</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>K-6301</t>
+          <t>ー</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ー</t>
+          <t>T5005</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ー</t>
+          <t>パターン：ロック</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>外壁</t>
+          <t>ベントキャップ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>アイカ工業</t>
+          <t>Panasonic</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ジョリパッドネオ∞ JQ-620</t>
+          <t>ベンテック</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -718,12 +718,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T5005</t>
+          <t>KN-60　日塗工2019年K版</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>パターン：ロック</t>
+          <t>ー</t>
         </is>
       </c>
     </row>
@@ -735,22 +735,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>外壁</t>
+          <t>階段</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ベントキャップ</t>
+          <t>手すり</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Panasonic</t>
+          <t>ー</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ベンテック</t>
+          <t>ー</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>KN-60　日塗工2019年K版</t>
+          <t>KN-25　日塗工2019年K版</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -772,27 +772,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>中山藤井邸</t>
+          <t>佐藤茂邸</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>階段</t>
+          <t>外壁</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>手すり</t>
+          <t>外壁</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ー</t>
+          <t>アイカ工業</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ー</t>
+          <t>ジョリパッドネオ∞ JQ-620</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -802,98 +802,10 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>KN-25　日塗工2019年K版</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ー</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>松田邸</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>外壁</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>外壁</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>テスト</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>板張り</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0005</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ー</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ー</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>佐藤茂邸</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>内壁</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>内壁</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>左官工事</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>土壁</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>グレー</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ー</t>
-        </is>
-      </c>
+          <t>T5005</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
